--- a/biology/Histoire de la zoologie et de la botanique/Charles_Oberthür/Charles_Oberthür.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Oberthür/Charles_Oberthür.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Oberth%C3%BCr</t>
+          <t>Charles_Oberthür</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Oberthür (14 septembre 1845, Rennes[1] - 1er juin 1924, Rennes) est un entomologiste amateur, fils de l’imprimeur François-Charles Oberthür et de Marie Hamelin, frère de l'entomologiste René Oberthür.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Oberthür (14 septembre 1845, Rennes - 1er juin 1924, Rennes) est un entomologiste amateur, fils de l’imprimeur François-Charles Oberthür et de Marie Hamelin, frère de l'entomologiste René Oberthür.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Oberth%C3%BCr</t>
+          <t>Charles_Oberthür</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre à seize ans dans l’imprimerie familiale (qui était chargée notamment de l’impression des calendriers des postes et des tickets de loterie nationale) et devient rapidement un bon ouvrier lithographe.
 En 1870, il épouse Louise Le Ray.
 Il reçoit, en 1913, le prix Cuvier de l’Académie des sciences.
-Il est enterré au cimetière de Nord de Rennes dans une chapelle bâtie par son beau-frère Emmanuel Le Ray, architecte municipal[2].
+Il est enterré au cimetière de Nord de Rennes dans une chapelle bâtie par son beau-frère Emmanuel Le Ray, architecte municipal.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Oberth%C3%BCr</t>
+          <t>Charles_Oberthür</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Vie politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été membre du conseil municipal de Rennes. Entre 1900 et 1906, il occupe le poste de premier adjoint du maire, Eugène Pinault.
-En 1906, il se présente comme député d’Ille-et-Vilaine contre René Le Hérissé et M. Jaouen dans la première circonscription de l’arrondissement de Rennes[3]. Il fait un bon score au premier tour (8151 voix sur 18380) mais il est battu au second tour le 20 mai 1906 (2172 voix sur 12014).
+En 1906, il se présente comme député d’Ille-et-Vilaine contre René Le Hérissé et M. Jaouen dans la première circonscription de l’arrondissement de Rennes. Il fait un bon score au premier tour (8151 voix sur 18380) mais il est battu au second tour le 20 mai 1906 (2172 voix sur 12014).
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Oberth%C3%BCr</t>
+          <t>Charles_Oberthür</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Entomologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se passionne très tôt pour les insectes notamment grâce à l’influence de son père. Il commence sa première collection d’insectes à neuf ans. Celle-ci va rapidement augmenter grâce à l’achat des collections de Jean-Baptiste Alphonse Dechauffour de Boisduval (1799-1879), Achille Guénée (1809-1880), Eugène Bellier de La Chavignerie (1819-1888), Adolphe de Graslin (1802-1882), Constant Bar (1817-1884), Antoine Guillemot (1822-1902) et Henry Walter Bates (1825-1892). Son immense collection, à la fin de sa vie, occupe 15 000 boîtes vitrées de 50 x 39 cm et renferme 5 millions de spécimens appartenant à de très nombreuses espèces. En 1916, elle serait la deuxième plus grande collection privée au monde[4].
-Pour l’illustration de ses publications qu’il fait imprimer dans sa propre usine, il fait appel à de talentueux illustrateurs comme A. d’Apreval[5] ou Jules Culot (1861-1933). Il est notamment l’auteur des Études d’entomologie (21 volumes, 1876-1902) illustrées de 1 300 figures en couleur, des Études de lépidoptérologie comparée (22 fascicules, 1904-1924) illustrées de plus de 5 000 figures. Il est également l’auteur de 111 notes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se passionne très tôt pour les insectes notamment grâce à l’influence de son père. Il commence sa première collection d’insectes à neuf ans. Celle-ci va rapidement augmenter grâce à l’achat des collections de Jean-Baptiste Alphonse Dechauffour de Boisduval (1799-1879), Achille Guénée (1809-1880), Eugène Bellier de La Chavignerie (1819-1888), Adolphe de Graslin (1802-1882), Constant Bar (1817-1884), Antoine Guillemot (1822-1902) et Henry Walter Bates (1825-1892). Son immense collection, à la fin de sa vie, occupe 15 000 boîtes vitrées de 50 x 39 cm et renferme 5 millions de spécimens appartenant à de très nombreuses espèces. En 1916, elle serait la deuxième plus grande collection privée au monde.
+Pour l’illustration de ses publications qu’il fait imprimer dans sa propre usine, il fait appel à de talentueux illustrateurs comme A. d’Apreval ou Jules Culot (1861-1933). Il est notamment l’auteur des Études d’entomologie (21 volumes, 1876-1902) illustrées de 1 300 figures en couleur, des Études de lépidoptérologie comparée (22 fascicules, 1904-1924) illustrées de plus de 5 000 figures. Il est également l’auteur de 111 notes.
 	Collection de lépidoptères conservée à l’Université de Rennes 1
 			Écozone afrotropicale
 			Écozone australasienne
@@ -589,8 +607,43 @@
 			Écozone indomalaise
 			Écozone néotropique
 			Écozone néotropique
-Taxonomie
-Il a nommé plus de quarante-cinq espèces d’insectes[6]. Un grand nombre sont des papillons de nuit et viennent d’Afrique du Nord ou d'Asie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Oberthür</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Oberth%C3%BCr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Entomologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a nommé plus de quarante-cinq espèces d’insectes. Un grand nombre sont des papillons de nuit et viennent d’Afrique du Nord ou d'Asie.
 Note : la taxinomie des insectes évolue régulièrement et fortement, certaines espèces ont été renommées depuis.
 Sena oberthueri est un papillon décrit par Lucas et Albuna oberthuri.
 Charles Oberthür travaille souvent avec des missionnaires qui récupèrent les papillons pour lui. En contrepartie Il imprime à Rennes des Chants religieux en tibétain pour Jules Dubernard. M. et Mme Oberthür se procurent, dans les salles de ventes de Bretagne, les objets sacerdotaux qu’ils offrent au Supérieur des Missions étrangères de Paris pour en doter les jeunes missionnaires en partance pour l’étranger. Il a notamment travaillé avec Félix Biet, Pierre Jean Marie Delavay, Jules Étienne Dubernard, Théodore Monbeig, Jean Batiste Goutelle.
@@ -598,33 +651,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Charles_Oberth%C3%BCr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Oberthür</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charles_Oberth%C3%BCr</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2 avril 1912)[7]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2 avril 1912)</t>
         </is>
       </c>
     </row>
